--- a/biology/Zoologie/Charles_Ferrière/Charles_Ferrière.xlsx
+++ b/biology/Zoologie/Charles_Ferrière/Charles_Ferrière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Ferri%C3%A8re</t>
+          <t>Charles_Ferrière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Ferrière, né à Genève en 1888 et mort en 1979 dans cette même ville, est un entomologiste suisse spécialiste des hyménoptères, des auxiliaires entomophages et de la lutte biologique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Ferri%C3%A8re</t>
+          <t>Charles_Ferrière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Ferrière naît à Genève le 6 octobre 1888. Il est fils de Frédéric Ferrière médecin et fondateur de la section civile de l'Agence internationale des prisonniers de guerre, et frère d'Adolphe Ferrière, pédagogue. Il est diplômé de l'Université de Genève en 1910. Il accompagne la même année le professeur E. Bugnion, de l'Université de Lausanne, à Ceylan pendant six mois pour l'étude de termites, en tant qu'assistant et photographe[1]. Toutefois, il préférera pendant le reste de sa carrière travailler sur des insectes des collections. Puis il obtient un diplôme de l'Université d'Edimbourg en 1911. Il soutient sa thèse sur les organes respiratoires d'hémiptères aquatiques en 1913. Il travaille au Musée d'histoire naturelle de Berne de 1917 à 1927 comme conservateur des collections entomologiques, puis pendant 13 ans au siège suisse du Commonwealth Institute of Biological Control. À partir des années 1940 jusqu'à après sa retraite, il travaille sur la taxinomie des Chalcidiens, hyménoptères parasitoïdes, au Muséum d'histoire naturelle de Genève (MHNG). Il s'investit pour la création du Centre international d'identification des insectes entomophages au MHNG en 1958, dont il sera le directeur[2]. Il est l'auteur de 150 publications scientifiques[3].
-Il a été nommé membre honoraire de nombreuses sociétés, successivement la Société entomologique royale de Londres (1949), de France (1950), de Belgique (1950), des Pays-Bas (1951), de Suisse (1955), de Bavière (1964) et de Genève (1965), et a été correspondant de la Zoological Society of London (1955)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Ferrière naît à Genève le 6 octobre 1888. Il est fils de Frédéric Ferrière médecin et fondateur de la section civile de l'Agence internationale des prisonniers de guerre, et frère d'Adolphe Ferrière, pédagogue. Il est diplômé de l'Université de Genève en 1910. Il accompagne la même année le professeur E. Bugnion, de l'Université de Lausanne, à Ceylan pendant six mois pour l'étude de termites, en tant qu'assistant et photographe. Toutefois, il préférera pendant le reste de sa carrière travailler sur des insectes des collections. Puis il obtient un diplôme de l'Université d'Edimbourg en 1911. Il soutient sa thèse sur les organes respiratoires d'hémiptères aquatiques en 1913. Il travaille au Musée d'histoire naturelle de Berne de 1917 à 1927 comme conservateur des collections entomologiques, puis pendant 13 ans au siège suisse du Commonwealth Institute of Biological Control. À partir des années 1940 jusqu'à après sa retraite, il travaille sur la taxinomie des Chalcidiens, hyménoptères parasitoïdes, au Muséum d'histoire naturelle de Genève (MHNG). Il s'investit pour la création du Centre international d'identification des insectes entomophages au MHNG en 1958, dont il sera le directeur. Il est l'auteur de 150 publications scientifiques.
+Il a été nommé membre honoraire de nombreuses sociétés, successivement la Société entomologique royale de Londres (1949), de France (1950), de Belgique (1950), des Pays-Bas (1951), de Suisse (1955), de Bavière (1964) et de Genève (1965), et a été correspondant de la Zoological Society of London (1955).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Ferri%C3%A8re</t>
+          <t>Charles_Ferrière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferrière a décrit ou co-décrit les 24 genres suivants :
 Anagyrietta Ferrière, 1955
@@ -880,7 +896,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Charles_Ferri%C3%A8re</t>
+          <t>Charles_Ferrière</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -898,7 +914,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un certain nombre de taxons ont été décrits en sa mémoire :
 Agrilocida ferrierei Steffan, 1964
@@ -932,7 +950,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Charles_Ferri%C3%A8re</t>
+          <t>Charles_Ferrière</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -951,6 +969,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
